--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N2">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O2">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P2">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q2">
-        <v>176.366561133</v>
+        <v>191.0234435919657</v>
       </c>
       <c r="R2">
-        <v>176.366561133</v>
+        <v>764.0937743678629</v>
       </c>
       <c r="S2">
-        <v>0.04584164423209361</v>
+        <v>0.04576104732618943</v>
       </c>
       <c r="T2">
-        <v>0.04584164423209361</v>
+        <v>0.02823556033457509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N3">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O3">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P3">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q3">
-        <v>183.4937828551769</v>
+        <v>192.8669098825843</v>
       </c>
       <c r="R3">
-        <v>183.4937828551769</v>
+        <v>1157.201459295506</v>
       </c>
       <c r="S3">
-        <v>0.04769416979279156</v>
+        <v>0.04620266300740093</v>
       </c>
       <c r="T3">
-        <v>0.04769416979279156</v>
+        <v>0.04276207020562115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N4">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O4">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P4">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q4">
-        <v>39.42005030105561</v>
+        <v>54.3867261391305</v>
       </c>
       <c r="R4">
-        <v>39.42005030105561</v>
+        <v>326.320356834783</v>
       </c>
       <c r="S4">
-        <v>0.01024615953218868</v>
+        <v>0.0130287335521258</v>
       </c>
       <c r="T4">
-        <v>0.01024615953218868</v>
+        <v>0.01205851746591081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N5">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O5">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P5">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q5">
-        <v>54.4088649279098</v>
+        <v>55.93994703606749</v>
       </c>
       <c r="R5">
-        <v>54.4088649279098</v>
+        <v>335.6396822164049</v>
       </c>
       <c r="S5">
-        <v>0.01414209027535769</v>
+        <v>0.01340081885032922</v>
       </c>
       <c r="T5">
-        <v>0.01414209027535769</v>
+        <v>0.01240289453442968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N6">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O6">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P6">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q6">
-        <v>148.472118590114</v>
+        <v>174.4337425838937</v>
       </c>
       <c r="R6">
-        <v>148.472118590114</v>
+        <v>1046.602455503362</v>
       </c>
       <c r="S6">
-        <v>0.03859124992328098</v>
+        <v>0.04178686447887713</v>
       </c>
       <c r="T6">
-        <v>0.03859124992328098</v>
+        <v>0.03867510477117497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N7">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O7">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P7">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q7">
-        <v>428.4826310202686</v>
+        <v>433.6351041071602</v>
       </c>
       <c r="R7">
-        <v>428.4826310202686</v>
+        <v>1734.540416428641</v>
       </c>
       <c r="S7">
-        <v>0.1113722930507789</v>
+        <v>0.1038804250840102</v>
       </c>
       <c r="T7">
-        <v>0.1113722930507789</v>
+        <v>0.06409647902359583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N8">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O8">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P8">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q8">
-        <v>53.22980446826679</v>
+        <v>61.11043042406217</v>
       </c>
       <c r="R8">
-        <v>53.22980446826679</v>
+        <v>366.662582544373</v>
       </c>
       <c r="S8">
-        <v>0.01383562588793719</v>
+        <v>0.01463944553702377</v>
       </c>
       <c r="T8">
-        <v>0.01383562588793719</v>
+        <v>0.01354928389572048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N9">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O9">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P9">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q9">
-        <v>55.38089601439815</v>
+        <v>61.70017488879178</v>
       </c>
       <c r="R9">
-        <v>55.38089601439815</v>
+        <v>555.3015739991259</v>
       </c>
       <c r="S9">
-        <v>0.01439474306261554</v>
+        <v>0.01478072308837237</v>
       </c>
       <c r="T9">
-        <v>0.01439474306261554</v>
+        <v>0.02052006130989397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N10">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O10">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P10">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q10">
-        <v>11.89750231662148</v>
+        <v>17.398891891077</v>
       </c>
       <c r="R10">
-        <v>11.89750231662148</v>
+        <v>156.590027019693</v>
       </c>
       <c r="S10">
-        <v>0.003092429000970191</v>
+        <v>0.004168030375117346</v>
       </c>
       <c r="T10">
-        <v>0.003092429000970191</v>
+        <v>0.005786471901783429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N11">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O11">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P11">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q11">
-        <v>16.42132852649398</v>
+        <v>17.895783768695</v>
       </c>
       <c r="R11">
-        <v>16.42132852649398</v>
+        <v>161.062053918255</v>
       </c>
       <c r="S11">
-        <v>0.004268273392041626</v>
+        <v>0.004287064417746407</v>
       </c>
       <c r="T11">
-        <v>0.004268273392041626</v>
+        <v>0.005951726729852998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N12">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O12">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P12">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q12">
-        <v>44.81088586617753</v>
+        <v>55.80320870223356</v>
       </c>
       <c r="R12">
-        <v>44.81088586617753</v>
+        <v>502.228878320102</v>
       </c>
       <c r="S12">
-        <v>0.01164735919556295</v>
+        <v>0.01336806219361621</v>
       </c>
       <c r="T12">
-        <v>0.01164735919556295</v>
+        <v>0.01855886577181572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N13">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O13">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P13">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q13">
-        <v>129.3218313082467</v>
+        <v>138.7244798893685</v>
       </c>
       <c r="R13">
-        <v>129.3218313082467</v>
+        <v>832.346879336211</v>
       </c>
       <c r="S13">
-        <v>0.03361365864476345</v>
+        <v>0.03323245236369199</v>
       </c>
       <c r="T13">
-        <v>0.03361365864476345</v>
+        <v>0.03075771759851855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N14">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O14">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P14">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q14">
-        <v>129.226462442278</v>
+        <v>139.8919366076577</v>
       </c>
       <c r="R14">
-        <v>129.226462442278</v>
+        <v>839.3516196459459</v>
       </c>
       <c r="S14">
-        <v>0.03358887012705085</v>
+        <v>0.03351212506319071</v>
       </c>
       <c r="T14">
-        <v>0.03358887012705085</v>
+        <v>0.03101656379551469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N15">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O15">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P15">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q15">
-        <v>134.448686225981</v>
+        <v>141.2419597494058</v>
       </c>
       <c r="R15">
-        <v>134.448686225981</v>
+        <v>1271.177637744652</v>
       </c>
       <c r="S15">
-        <v>0.03494624378821989</v>
+        <v>0.0338355328696846</v>
       </c>
       <c r="T15">
-        <v>0.03494624378821989</v>
+        <v>0.04697383238882643</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N16">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O16">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P16">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q16">
-        <v>28.88367056077338</v>
+        <v>39.828956604954</v>
       </c>
       <c r="R16">
-        <v>28.88367056077338</v>
+        <v>358.4606094445859</v>
       </c>
       <c r="S16">
-        <v>0.007507516966129814</v>
+        <v>0.009541314583592305</v>
       </c>
       <c r="T16">
-        <v>0.007507516966129814</v>
+        <v>0.01324619635059136</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N17">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O17">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P17">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q17">
-        <v>39.86620306573481</v>
+        <v>40.96642473538999</v>
       </c>
       <c r="R17">
-        <v>39.86620306573481</v>
+        <v>368.6978226185099</v>
       </c>
       <c r="S17">
-        <v>0.0103621246912313</v>
+        <v>0.009813803300003985</v>
       </c>
       <c r="T17">
-        <v>0.0103621246912313</v>
+        <v>0.01362449213041154</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N18">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O18">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P18">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q18">
-        <v>108.787780027315</v>
+        <v>127.7428236081116</v>
       </c>
       <c r="R18">
-        <v>108.787780027315</v>
+        <v>1149.685412473004</v>
       </c>
       <c r="S18">
-        <v>0.0282763959152703</v>
+        <v>0.03060171718607696</v>
       </c>
       <c r="T18">
-        <v>0.0282763959152703</v>
+        <v>0.04248432969699076</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N19">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O19">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P19">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q19">
-        <v>313.9557423413901</v>
+        <v>317.5634014021369</v>
       </c>
       <c r="R19">
-        <v>313.9557423413901</v>
+        <v>1905.380408412822</v>
       </c>
       <c r="S19">
-        <v>0.08160417344750229</v>
+        <v>0.07607460931167133</v>
       </c>
       <c r="T19">
-        <v>0.08160417344750229</v>
+        <v>0.07040952993834562</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N20">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O20">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P20">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q20">
-        <v>127.4141145960288</v>
+        <v>138.6725567199958</v>
       </c>
       <c r="R20">
-        <v>127.4141145960288</v>
+        <v>832.0353403199749</v>
       </c>
       <c r="S20">
-        <v>0.03311780007466206</v>
+        <v>0.03322001379297883</v>
       </c>
       <c r="T20">
-        <v>0.03311780007466206</v>
+        <v>0.03074620529599156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N21">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O21">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P21">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q21">
-        <v>132.5630988446696</v>
+        <v>140.0108122709389</v>
       </c>
       <c r="R21">
-        <v>132.5630988446696</v>
+        <v>1260.09731043845</v>
       </c>
       <c r="S21">
-        <v>0.03445613712997745</v>
+        <v>0.03354060258799633</v>
       </c>
       <c r="T21">
-        <v>0.03445613712997745</v>
+        <v>0.04656438100906623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N22">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O22">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P22">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q22">
-        <v>28.47858899200437</v>
+        <v>39.481784138775</v>
       </c>
       <c r="R22">
-        <v>28.47858899200437</v>
+        <v>355.336057248975</v>
       </c>
       <c r="S22">
-        <v>0.007402227136577126</v>
+        <v>0.00945814690869109</v>
       </c>
       <c r="T22">
-        <v>0.007402227136577126</v>
+        <v>0.01313073476066977</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N23">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O23">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P23">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q23">
-        <v>39.30709600748357</v>
+        <v>40.60933743212499</v>
       </c>
       <c r="R23">
-        <v>39.30709600748357</v>
+        <v>365.4840368891249</v>
       </c>
       <c r="S23">
-        <v>0.01021680016549721</v>
+        <v>0.009728260454178236</v>
       </c>
       <c r="T23">
-        <v>0.01021680016549721</v>
+        <v>0.0135057330933555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N24">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O24">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P24">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q24">
-        <v>107.2620762735749</v>
+        <v>126.6293424906278</v>
       </c>
       <c r="R24">
-        <v>107.2620762735749</v>
+        <v>1139.66408241565</v>
       </c>
       <c r="S24">
-        <v>0.02787983112298081</v>
+        <v>0.03033497473208354</v>
       </c>
       <c r="T24">
-        <v>0.02787983112298081</v>
+        <v>0.04211401144685032</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N25">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O25">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P25">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q25">
-        <v>309.552642521923</v>
+        <v>314.7953331766375</v>
       </c>
       <c r="R25">
-        <v>309.552642521923</v>
+        <v>1888.771999059825</v>
       </c>
       <c r="S25">
-        <v>0.08045970856625877</v>
+        <v>0.07541149855056613</v>
       </c>
       <c r="T25">
-        <v>0.08045970856625877</v>
+        <v>0.06979579932035201</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N26">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O26">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P26">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q26">
-        <v>124.1963727796326</v>
+        <v>140.794496199223</v>
       </c>
       <c r="R26">
-        <v>124.1963727796326</v>
+        <v>844.766977195338</v>
       </c>
       <c r="S26">
-        <v>0.03228143645431153</v>
+        <v>0.03372833974034076</v>
       </c>
       <c r="T26">
-        <v>0.03228143645431153</v>
+        <v>0.03121667752493966</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N27">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O27">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P27">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q27">
-        <v>129.215323538802</v>
+        <v>142.1532294665506</v>
       </c>
       <c r="R27">
-        <v>129.215323538802</v>
+        <v>1279.379065198956</v>
       </c>
       <c r="S27">
-        <v>0.03358597487498605</v>
+        <v>0.03405383412040577</v>
       </c>
       <c r="T27">
-        <v>0.03358597487498605</v>
+        <v>0.04727689977071581</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N28">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O28">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P28">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q28">
-        <v>27.75938494650225</v>
+        <v>40.085926432362</v>
       </c>
       <c r="R28">
-        <v>27.75938494650225</v>
+        <v>360.773337891258</v>
       </c>
       <c r="S28">
-        <v>0.007215289795550626</v>
+        <v>0.009602873564062463</v>
       </c>
       <c r="T28">
-        <v>0.007215289795550626</v>
+        <v>0.01333165861423501</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N29">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O29">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P29">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q29">
-        <v>38.31442665601186</v>
+        <v>41.23073331866998</v>
       </c>
       <c r="R29">
-        <v>38.31442665601186</v>
+        <v>371.0765998680299</v>
       </c>
       <c r="S29">
-        <v>0.009958783028019813</v>
+        <v>0.009877120332514557</v>
       </c>
       <c r="T29">
-        <v>0.009958783028019813</v>
+        <v>0.01371239509573396</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N30">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O30">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P30">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q30">
-        <v>104.5532581082308</v>
+        <v>128.5669991360013</v>
       </c>
       <c r="R30">
-        <v>104.5532581082308</v>
+        <v>1157.102992224012</v>
       </c>
       <c r="S30">
-        <v>0.02717574822978714</v>
+        <v>0.0307991543939278</v>
       </c>
       <c r="T30">
-        <v>0.02717574822978714</v>
+        <v>0.04275843155152999</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N31">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O31">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P31">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q31">
-        <v>301.735137488224</v>
+        <v>319.6122678401609</v>
       </c>
       <c r="R31">
-        <v>301.735137488224</v>
+        <v>1917.673607040966</v>
       </c>
       <c r="S31">
-        <v>0.07842776281511844</v>
+        <v>0.07656543008357475</v>
       </c>
       <c r="T31">
-        <v>0.07842776281511844</v>
+        <v>0.07086380055697099</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H32">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I32">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J32">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.905222509806291</v>
+        <v>0.9792095</v>
       </c>
       <c r="N32">
-        <v>0.905222509806291</v>
+        <v>1.958419</v>
       </c>
       <c r="O32">
-        <v>0.171122676328985</v>
+        <v>0.1732975521250335</v>
       </c>
       <c r="P32">
-        <v>0.171122676328985</v>
+        <v>0.1424379312953115</v>
       </c>
       <c r="Q32">
-        <v>47.92696946100649</v>
+        <v>51.91486218098775</v>
       </c>
       <c r="R32">
-        <v>47.92696946100649</v>
+        <v>207.659448723951</v>
       </c>
       <c r="S32">
-        <v>0.01245729955292973</v>
+        <v>0.01243658066531003</v>
       </c>
       <c r="T32">
-        <v>0.01245729955292973</v>
+        <v>0.007673640448569959</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H33">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I33">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J33">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.941803829382112</v>
+        <v>0.9886593333333332</v>
       </c>
       <c r="N33">
-        <v>0.941803829382112</v>
+        <v>2.965978</v>
       </c>
       <c r="O33">
-        <v>0.1780379852631385</v>
+        <v>0.1749699552059434</v>
       </c>
       <c r="P33">
-        <v>0.1780379852631385</v>
+        <v>0.215718786729196</v>
       </c>
       <c r="Q33">
-        <v>49.86376595817807</v>
+        <v>52.415865076827</v>
       </c>
       <c r="R33">
-        <v>49.86376595817807</v>
+        <v>314.495190460962</v>
       </c>
       <c r="S33">
-        <v>0.01296071661454806</v>
+        <v>0.01255659953208342</v>
       </c>
       <c r="T33">
-        <v>0.01296071661454806</v>
+        <v>0.01162154204507239</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H34">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I34">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J34">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.202328132050509</v>
+        <v>0.278793</v>
       </c>
       <c r="N34">
-        <v>0.202328132050509</v>
+        <v>0.836379</v>
       </c>
       <c r="O34">
-        <v>0.03824797889806823</v>
+        <v>0.04933994660958097</v>
       </c>
       <c r="P34">
-        <v>0.03824797889806823</v>
+        <v>0.06083074895558168</v>
       </c>
       <c r="Q34">
-        <v>10.71225483330313</v>
+        <v>14.7808004027985</v>
       </c>
       <c r="R34">
-        <v>10.71225483330313</v>
+        <v>88.684802416791</v>
       </c>
       <c r="S34">
-        <v>0.002784356466651793</v>
+        <v>0.003540847625991965</v>
       </c>
       <c r="T34">
-        <v>0.002784356466651793</v>
+        <v>0.003277169862391294</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H35">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I35">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J35">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.279260019299307</v>
+        <v>0.2867549999999999</v>
       </c>
       <c r="N35">
-        <v>0.279260019299307</v>
+        <v>0.8602649999999998</v>
       </c>
       <c r="O35">
-        <v>0.05279113298277074</v>
+        <v>0.05074903742213896</v>
       </c>
       <c r="P35">
-        <v>0.05279113298277074</v>
+        <v>0.06256800356091373</v>
       </c>
       <c r="Q35">
-        <v>14.78541051691483</v>
+        <v>15.2029226684475</v>
       </c>
       <c r="R35">
-        <v>14.78541051691483</v>
+        <v>91.217536010685</v>
       </c>
       <c r="S35">
-        <v>0.003843061430623106</v>
+        <v>0.003641970067366561</v>
       </c>
       <c r="T35">
-        <v>0.003843061430623106</v>
+        <v>0.00337076197713004</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H36">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I36">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J36">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7620509407395401</v>
+        <v>0.8941686666666667</v>
       </c>
       <c r="N36">
-        <v>0.7620509407395401</v>
+        <v>2.682506</v>
       </c>
       <c r="O36">
-        <v>0.1440576157416546</v>
+        <v>0.1582472812204522</v>
       </c>
       <c r="P36">
-        <v>0.1440576157416546</v>
+        <v>0.1951015616817754</v>
       </c>
       <c r="Q36">
-        <v>40.34675648131058</v>
+        <v>47.406242582979</v>
       </c>
       <c r="R36">
-        <v>40.34675648131058</v>
+        <v>284.4374554978741</v>
       </c>
       <c r="S36">
-        <v>0.01048703135477241</v>
+        <v>0.01135650823587058</v>
       </c>
       <c r="T36">
-        <v>0.01048703135477241</v>
+        <v>0.0105108184434136</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H37">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I37">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J37">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.19923845069515</v>
+        <v>2.2228665</v>
       </c>
       <c r="N37">
-        <v>2.19923845069515</v>
+        <v>4.445733</v>
       </c>
       <c r="O37">
-        <v>0.415742610785383</v>
+        <v>0.3933962274168509</v>
       </c>
       <c r="P37">
-        <v>0.415742610785383</v>
+        <v>0.3233429677772218</v>
       </c>
       <c r="Q37">
-        <v>116.4385915309296</v>
+        <v>117.8499677487142</v>
       </c>
       <c r="R37">
-        <v>116.4385915309296</v>
+        <v>471.399870994857</v>
       </c>
       <c r="S37">
-        <v>0.03026501426096127</v>
+        <v>0.02823181202333656</v>
       </c>
       <c r="T37">
-        <v>0.03026501426096127</v>
+        <v>0.01741964133943874</v>
       </c>
     </row>
   </sheetData>
